--- a/ScenarioMaster/StorySheetTest.xlsx
+++ b/ScenarioMaster/StorySheetTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Documents\UnityProject\My DevGame\ScenarioGame\ScenarioMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vantan\Documents\UnityProject\My DevGame\REDMASK-re\ScenarioMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E69F4-0302-41C6-BC3F-6E367D9F9436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068EBCC0-DEC8-4499-8F08-726D74061A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC8CB9E1-192C-4489-96E9-E7ED89E0A81B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>発言者</t>
     <rPh sb="0" eb="3">
@@ -140,6 +140,9 @@
       <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\vantan\Documents\UnityProject\My DevGame\REDMASK-re\Assets\Game\Resources\TextData</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1170,10 +1173,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF4F3F4-C115-4AB9-8959-9870E0C9FCDC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1185,7 +1188,7 @@
     <col min="5" max="5" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1199,15 +1202,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="21"/>
       <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="17">
         <v>0</v>
       </c>
@@ -1217,7 +1223,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -1225,46 +1231,46 @@
       <c r="D5" s="10"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" s="9"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D11" s="9"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D15" s="9"/>
       <c r="E15" s="3"/>
     </row>
